--- a/renview/data/example_caz/Cartel1.xlsx
+++ b/renview/data/example_caz/Cartel1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="248">
   <si>
     <t>Species_name</t>
   </si>
@@ -748,6 +748,18 @@
   </si>
   <si>
     <t>CHOO(S) + OH(S) + PT(B) &lt;=&gt; CO2(S) + H2O(S) + PT(S)</t>
+  </si>
+  <si>
+    <t>Fwd_rate</t>
+  </si>
+  <si>
+    <t>Rev_rate</t>
+  </si>
+  <si>
+    <t>Ea kcal/mol</t>
+  </si>
+  <si>
+    <t>DG kcal/mol</t>
   </si>
 </sst>
 </file>
@@ -2892,15 +2904,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2916,8 +2933,26 @@
       <c r="E1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="K1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>3.8700000000000002E-35</v>
       </c>
@@ -2935,8 +2970,30 @@
       <c r="E2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>-26</v>
+      </c>
+      <c r="M2">
+        <f>EXP((-K2*4.18*1000)/(8.31*298))</f>
+        <v>2.1810835439352733E-15</v>
+      </c>
+      <c r="N2">
+        <f>EXP((-(K2-L2)*4.18*1000)/(8.31*298))</f>
+        <v>1.9008431952287508E-34</v>
+      </c>
+      <c r="O2" s="1">
+        <f>M2-N2</f>
+        <v>2.1810835439352733E-15</v>
+      </c>
+      <c r="P2" s="1">
+        <f>M2/(M2+N2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>5.3899999999999998E-36</v>
       </c>
@@ -2955,7 +3012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2.12</v>
       </c>
@@ -2974,7 +3031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3.5200000000000001E-3</v>
       </c>
@@ -2993,7 +3050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>9.0100000000000006E-8</v>
       </c>
@@ -3012,7 +3069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>8.1100000000000005E-8</v>
       </c>
@@ -3031,7 +3088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>5.0299999999999999E-16</v>
       </c>
@@ -3050,7 +3107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7.7100000000000001E-7</v>
       </c>
@@ -3069,7 +3126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>5.5299999999999999E-8</v>
       </c>
@@ -3088,7 +3145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>4.8500000000000002E-6</v>
       </c>
@@ -3107,7 +3164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3126,7 +3183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>1.14E-29</v>
       </c>
@@ -3145,7 +3202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>1.85</v>
       </c>
@@ -3164,7 +3221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>1.21</v>
       </c>
@@ -3183,7 +3240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>21</v>
       </c>
